--- a/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.02.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.02.xlsx
@@ -34,84 +34,87 @@
     <t>personal</t>
   </si>
   <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>הורה:</t>
+  </si>
+  <si>
+    <t>שלום,</t>
+  </si>
+  <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלום, מה נשמע? </t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>קוראים לי דוקטור דוק,</t>
+  </si>
+  <si>
+    <t>היי דוק.</t>
+  </si>
+  <si>
+    <t>איך קוראים לך?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מיכאל. </t>
+  </si>
+  <si>
+    <t>נעים מאד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי נעים מאד. </t>
+  </si>
+  <si>
+    <t>מה קורה עם יואב?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>אא עם יואב אא,</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>הוא בסדר?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא בסדר. כאילו עכשיו הוא עבר הוא, אנחנו עשינו לו בדיקות אא... </t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>מה אתה חושב שהוא איך אתה חושב שהוא מרגיש כאילו מבחינת אא איך הוא היה לפני?</t>
+  </si>
+  <si>
+    <t>אא אתה יודע, היו לו כאבי בטן,</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>לקחתי אותו לרופא למשפחה...</t>
+  </si>
+  <si>
+    <t>זה פעם ראשונה שיש לו את ה...</t>
+  </si>
+  <si>
     <t>[?]med</t>
   </si>
   <si>
-    <t>הורה:</t>
-  </si>
-  <si>
-    <t>שלום,</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלום, מה נשמע? </t>
-  </si>
-  <si>
-    <t>קוראים לי דוקטור דוק,</t>
-  </si>
-  <si>
-    <t>היי דוק.</t>
-  </si>
-  <si>
-    <t>איך קוראים לך?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מיכאל. </t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>נעים מאד.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי נעים מאד. </t>
-  </si>
-  <si>
-    <t>מה קורה עם יואב?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>אא עם יואב אא,</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>הוא בסדר?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא בסדר. כאילו עכשיו הוא עבר הוא, אנחנו עשינו לו בדיקות אא... </t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>מה אתה חושב שהוא איך אתה חושב שהוא מרגיש כאילו מבחינת אא איך הוא היה לפני?</t>
-  </si>
-  <si>
-    <t>אא אתה יודע, היו לו כאבי בטן,</t>
-  </si>
-  <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>לקחתי אותו לרופא למשפחה...</t>
-  </si>
-  <si>
-    <t>זה פעם ראשונה שיש לו את ה...</t>
-  </si>
-  <si>
     <t xml:space="preserve">אא אתה יודע היו לו כל מיני כאבי בטן בעבר אבל לא משהו שהוא.. </t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>approve</t>
   </si>
   <si>
+    <t>r/o</t>
+  </si>
+  <si>
     <t>אנחנו נוכל לצאת עוד מעט?</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>?other</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>לא, אני שואל. יש לכם מישהו יש מכם מישהו עם סכרת?</t>
   </si>
   <si>
@@ -211,9 +220,6 @@
     <t xml:space="preserve">כן (לא נשמע) אני מסכים. תיקח את הילד תבדוק אותו אא </t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>היום המצבים של הסכרת נעורים לא יודע אם יש לכם מודעת עכשיו כאילו צריכים לטפל בילד יותר, לשמור על הדיאטה שלו אא לשמור על ה... על ה...</t>
   </si>
   <si>
@@ -283,9 +289,6 @@
     <t>עכשיו מאה שמונים, מאה עשרים כאילו..</t>
   </si>
   <si>
-    <t>r/o</t>
-  </si>
-  <si>
     <t>הוא מרגיש יותר טוב?</t>
   </si>
   <si>
@@ -314,9 +317,6 @@
   </si>
   <si>
     <t>הוא בן חמש.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>אני יודע אני מצטער.</t>
@@ -804,21 +804,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -832,10 +832,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -860,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -874,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -882,27 +882,27 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -924,27 +924,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -952,41 +952,41 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -994,16 +994,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1025,24 +1025,24 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1078,27 +1078,27 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1106,27 +1106,27 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1134,41 +1134,41 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1176,27 +1176,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1204,27 +1204,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
         <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1232,27 +1232,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1260,27 +1260,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1288,27 +1288,27 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1344,27 +1344,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1372,27 +1372,27 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1400,41 +1400,41 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1442,27 +1442,27 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1470,27 +1470,27 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1498,27 +1498,27 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1568,27 +1568,27 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1596,27 +1596,27 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1624,55 +1624,55 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1680,27 +1680,27 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1708,83 +1708,83 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1792,41 +1792,41 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1840,10 +1840,10 @@
         <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1854,7 +1854,7 @@
         <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1865,13 +1865,13 @@
         <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1879,13 +1879,13 @@
         <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1893,13 +1893,13 @@
         <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1907,10 +1907,10 @@
         <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1921,13 +1921,13 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1935,13 +1935,13 @@
         <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1977,13 +1977,13 @@
         <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1991,10 +1991,10 @@
         <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2005,13 +2005,13 @@
         <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2019,10 +2019,10 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2033,10 +2033,10 @@
         <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2047,13 +2047,13 @@
         <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2061,13 +2061,13 @@
         <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2075,13 +2075,13 @@
         <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2092,10 +2092,10 @@
         <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2103,10 +2103,10 @@
         <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2117,13 +2117,13 @@
         <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2131,10 +2131,10 @@
         <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2145,13 +2145,13 @@
         <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2159,10 +2159,10 @@
         <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2173,13 +2173,13 @@
         <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2187,13 +2187,13 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2201,10 +2201,10 @@
         <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2215,13 +2215,13 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2229,13 +2229,13 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2243,10 +2243,10 @@
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2257,24 +2257,24 @@
         <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2285,13 +2285,13 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2299,10 +2299,10 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2313,13 +2313,13 @@
         <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2327,13 +2327,13 @@
         <v>138</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
